--- a/Feast data/DNDC_Manure_N_inputs.xlsx
+++ b/Feast data/DNDC_Manure_N_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0180970-A861-48FF-B73E-1EB1039C204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3FA38-6A77-497A-8C27-7E9FB82823E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{36FE5AA3-19FE-4C8D-834C-89549674430F}"/>
   </bookViews>
@@ -171,14 +171,16 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
+      <sheetName val="Yield_increments"/>
       <sheetName val="SA"/>
       <sheetName val="SH"/>
       <sheetName val="THH"/>
       <sheetName val="THSH"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
         <row r="11">
           <cell r="A11" t="str">
             <v>Maize as residue</v>
@@ -195,9 +197,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -503,7 +505,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
